--- a/Tables/aq_hmf_metrics_outlet_min_50_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_min_50_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04215240958298392</v>
+        <v>0.1987441392930417</v>
       </c>
       <c r="C2" t="n">
-        <v>36.79591836734694</v>
+        <v>72.88</v>
       </c>
       <c r="D2" t="n">
-        <v>6.434905570619856</v>
+        <v>47.70400000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006894834825010375</v>
+        <v>0.1296710483892881</v>
       </c>
       <c r="F2" t="n">
         <v>26</v>
@@ -574,19 +574,19 @@
         <v>0.0117231744924</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01578378311066727</v>
+        <v>0.04327427546941735</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001855972209377664</v>
+        <v>0.0570065694360288</v>
       </c>
       <c r="M2" t="n">
-        <v>8.073699302592e-05</v>
+        <v>0.06669854254159488</v>
       </c>
       <c r="N2" t="n">
-        <v>2.44657554624e-05</v>
+        <v>0.07390215061356044</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002127645108717514</v>
+        <v>0.02326530239437824</v>
       </c>
       <c r="P2" t="n">
         <v>0.000244657554624</v>
@@ -1318,10 +1318,10 @@
         <v>0.02934333764144518</v>
       </c>
       <c r="F13" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G13" t="n">
-        <v>4.680851063829787</v>
+        <v>3.590909090909091</v>
       </c>
       <c r="H13" t="n">
         <v>152.72</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09469079199634521</v>
+        <v>0.07988175531323437</v>
       </c>
       <c r="C15" t="n">
         <v>36.38</v>
@@ -1453,10 +1453,10 @@
         <v>2.863468017620495</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01449324264915005</v>
+        <v>0.01425942114964943</v>
       </c>
       <c r="F15" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G15" t="n">
         <v>3.065217391304348</v>
@@ -1465,16 +1465,16 @@
         <v>147.72</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01811955124115311</v>
+        <v>0.016094971986336</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02006850641333095</v>
+        <v>0.01860473908382746</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0328629464205504</v>
+        <v>0.0248997960870848</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0227892686952384</v>
+        <v>0.018695914799184</v>
       </c>
       <c r="M15" t="n">
         <v>0.009976785566774402</v>
@@ -1483,22 +1483,22 @@
         <v>0.0138965491026432</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0139363059552696</v>
+        <v>0.013333836727008</v>
       </c>
       <c r="P15" t="n">
-        <v>0.009268203833991531</v>
+        <v>0.00122328777312</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04423032191364037</v>
+        <v>0.01732842734614167</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03273949829494927</v>
+        <v>0.0171205919891328</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0144837272337408</v>
+        <v>0.0136903377351744</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0147615883136352</v>
+        <v>0.01418369981149137</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1927,46 +1927,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.873736095397328</v>
+        <v>0.07891300657263108</v>
       </c>
       <c r="C22" t="n">
-        <v>65.14285714285714</v>
+        <v>47.86842105263158</v>
       </c>
       <c r="D22" t="n">
-        <v>23.87746598639456</v>
+        <v>10.15952380952381</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6765391364903054</v>
+        <v>0.02109388754597282</v>
       </c>
       <c r="F22" t="n">
-        <v>56.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>3.142857142857143</v>
+        <v>2.28</v>
       </c>
       <c r="H22" t="n">
-        <v>203.2857142857143</v>
+        <v>192.28</v>
       </c>
       <c r="I22" t="n">
-        <v>0.158945857987392</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3046965185287296</v>
+        <v>0.00142716906864</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5155578511597744</v>
+        <v>0.00841458882870144</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7646014596389761</v>
+        <v>0.01450060016854245</v>
       </c>
       <c r="M22" t="n">
-        <v>0.638066902459392</v>
+        <v>0.0433148724922176</v>
       </c>
       <c r="N22" t="n">
-        <v>0.374430911812416</v>
+        <v>0.0257265064235718</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0254933171918208</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.026728837842672</v>
+        <v>0</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_min_50_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_min_50_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,20 +543,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1987441392930417</v>
+        <v>0.588271544339356</v>
       </c>
       <c r="C2" t="n">
-        <v>72.88</v>
+        <v>96.15789473684211</v>
       </c>
       <c r="D2" t="n">
-        <v>47.70400000000001</v>
+        <v>64.29824561403508</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1296710483892881</v>
+        <v>0.4678852106594605</v>
       </c>
       <c r="F2" t="n">
         <v>26</v>
@@ -568,40 +568,40 @@
         <v>164.6153846153846</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001712602882368</v>
+        <v>0.08650487642869921</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0117231744924</v>
+        <v>0.175987887717318</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04327427546941735</v>
+        <v>0.2432067353250797</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0570065694360288</v>
+        <v>0.2209233252499258</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06669854254159488</v>
+        <v>0.1499824207111507</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07390215061356044</v>
+        <v>0.1229788673857152</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02326530239437824</v>
+        <v>0.07598902871656994</v>
       </c>
       <c r="P2" t="n">
-        <v>0.000244657554624</v>
+        <v>0.07769924327519043</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.05558614204222748</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.1071495375819743</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.104071207298184</v>
       </c>
       <c r="T2" t="n">
-        <v>0.000366986331936</v>
+        <v>0.08315433199438264</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.031388394156911</v>
+        <v>0.0007478643198235508</v>
       </c>
       <c r="C3" t="n">
-        <v>39.30434782608695</v>
+        <v>36.875</v>
       </c>
       <c r="D3" t="n">
-        <v>4.615995689093515</v>
+        <v>5.124822573260073</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003741172588263293</v>
+        <v>0.0001914148280759329</v>
       </c>
       <c r="F3" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>3.290322580645161</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="H3" t="n">
-        <v>216.4193548387097</v>
+        <v>135.4545454545455</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00222883032262464</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008276765072929921</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009950222746558081</v>
+        <v>4.89315109248e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00206840486894976</v>
+        <v>1.5658083495936e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002671084831659671</v>
+        <v>1.851242163321599e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005775252784878895</v>
+        <v>1.94747413480704e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003388254037520375</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.006729735843745297</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.007666313107789884</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.009443944713522815</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003357830838154929</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002177941551262848</v>
+        <v>0</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04261318181016023</v>
+        <v>0.04583540903192919</v>
       </c>
       <c r="C4" t="n">
-        <v>36.48979591836735</v>
+        <v>58.70967741935484</v>
       </c>
       <c r="D4" t="n">
-        <v>2.815246657453314</v>
+        <v>18.79896429735139</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006799584455391401</v>
+        <v>0.01361859924427433</v>
       </c>
       <c r="F4" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>2.783783783783784</v>
+        <v>3.290322580645161</v>
       </c>
       <c r="H4" t="n">
-        <v>105.3265306122449</v>
+        <v>216.4193548387097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01675626562849903</v>
+        <v>0.0045169901022456</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01878565308563896</v>
+        <v>0.008891399218490879</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01398996441887908</v>
+        <v>0.01709422334157888</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004219499170523918</v>
+        <v>0.01664650001661696</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001612831531592324</v>
+        <v>0.005693915268764352</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.005775252784878895</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.01942116134360775</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.01692769309939814</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.01821292001009712</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.01376688059869248</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.003357830838154929</v>
       </c>
       <c r="T4" t="n">
-        <v>0.004986993901392016</v>
+        <v>0.00779968284141312</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4495968867618038</v>
+        <v>0.08625921860747414</v>
       </c>
       <c r="C5" t="n">
-        <v>38.46808510638298</v>
+        <v>36.48979591836735</v>
       </c>
       <c r="D5" t="n">
-        <v>8.598467312829015</v>
+        <v>4.480660099537651</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1667307969919607</v>
+        <v>0.009997120041877906</v>
       </c>
       <c r="F5" t="n">
-        <v>76</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>2.431818181818182</v>
+        <v>2.783783783783784</v>
       </c>
       <c r="H5" t="n">
-        <v>200.6315789473684</v>
+        <v>122.8541666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.02978059219959106</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06387786335273891</v>
+        <v>0.0360561080868119</v>
       </c>
       <c r="K5" t="n">
-        <v>0.157528882983528</v>
+        <v>0.0257910246595391</v>
       </c>
       <c r="L5" t="n">
-        <v>0.17481364795872</v>
+        <v>0.01078584573122526</v>
       </c>
       <c r="M5" t="n">
-        <v>0.091196103486096</v>
+        <v>0.001639345420297733</v>
       </c>
       <c r="N5" t="n">
-        <v>0.145326587446656</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.076373933301792</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.020481332429952</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1334851618028544</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.191060074621728</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05645473072948801</v>
+        <v>0.0009537974767016694</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.008147482089974366</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.085424296981782</v>
+        <v>0.1122014224958942</v>
       </c>
       <c r="C6" t="n">
-        <v>55.09090909090909</v>
+        <v>36.4</v>
       </c>
       <c r="D6" t="n">
-        <v>21.52929292929293</v>
+        <v>4.689533688533688</v>
       </c>
       <c r="E6" t="n">
-        <v>1.04555826959414</v>
+        <v>0.02373674456371538</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>1.84</v>
       </c>
       <c r="H6" t="n">
-        <v>140.6363636363636</v>
+        <v>185.88</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4902937394664961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.43243222779792</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5257834765078362</v>
+        <v>0.0101101821858432</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7137790057095729</v>
+        <v>0.0275536833125472</v>
       </c>
       <c r="M6" t="n">
-        <v>0.42461677813632</v>
+        <v>0.0230071304224512</v>
       </c>
       <c r="N6" t="n">
-        <v>0.322295551958016</v>
+        <v>0.007404968653286399</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.000489315109248</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.0057861511668576</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.01483736860815185</v>
       </c>
       <c r="S6" t="n">
-        <v>0.071195348395584</v>
+        <v>0.007241863616870401</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2721570637637376</v>
+        <v>0</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.173715851203414</v>
+        <v>0.01524867843717929</v>
       </c>
       <c r="C7" t="n">
-        <v>36.46</v>
+        <v>36.52</v>
       </c>
       <c r="D7" t="n">
-        <v>3.631907079848256</v>
+        <v>2.948670977255646</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01970392901484785</v>
+        <v>0.0013286907019364</v>
       </c>
       <c r="F7" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G7" t="n">
-        <v>3.020833333333333</v>
+        <v>4.307692307692307</v>
       </c>
       <c r="H7" t="n">
-        <v>145.8913043478261</v>
+        <v>207.3829787234042</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007864700586554465</v>
+        <v>0.000337522572143424</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02251909685277506</v>
+        <v>6.624782895763201e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02025872201610758</v>
+        <v>0.0007108636457579695</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03294418826249856</v>
+        <v>0.002496417183268001</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0427172090373504</v>
+        <v>0.004234474703633471</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0231350902069728</v>
+        <v>0.003228594789456245</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0091257267874752</v>
+        <v>0.001693971268592788</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.001187608546404</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0290381333165952</v>
+        <v>0.001498688480989516</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01485934853819294</v>
+        <v>0.00255778424308538</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01098769954529785</v>
+        <v>0.001383416142621408</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02337784486950531</v>
+        <v>0.0001329602601402066</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,47 +957,47 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1101536387636913</v>
+        <v>0.01100499792397783</v>
       </c>
       <c r="C8" t="n">
-        <v>36.32</v>
+        <v>46.71794871794872</v>
       </c>
       <c r="D8" t="n">
-        <v>6.747155122655123</v>
+        <v>9.930026455026455</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02115819176472777</v>
+        <v>0.002525950437954329</v>
       </c>
       <c r="F8" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>2.810810810810811</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>141.390243902439</v>
+        <v>140.6363636363636</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01890019070366307</v>
+        <v>0.003099128214746088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0278216415866592</v>
+        <v>0.003989828351278457</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0338973041931552</v>
+        <v>0.003544239820312397</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0323594567069472</v>
+        <v>0.002928938303310768</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00776869288449408</v>
+        <v>0.002517505848951408</v>
       </c>
       <c r="N8" t="n">
-        <v>0.015107603998032</v>
+        <v>0.002740898584452672</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.000796482669078432</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0101797930853136</v>
+        <v>0.001857178021611168</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2153310486641918</v>
+        <v>0.173715851203414</v>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>36.53333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>5.904633119405847</v>
+        <v>4.010935719609189</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03666442895615443</v>
+        <v>0.01970392901484785</v>
       </c>
       <c r="F9" t="n">
-        <v>74</v>
+        <v>93.878</v>
       </c>
       <c r="G9" t="n">
-        <v>3.951219512195122</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>165.9318181818182</v>
+        <v>145.8913043478261</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03787543603134145</v>
+        <v>0.02931836330297088</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02607827116333091</v>
+        <v>0.02778317965577462</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04832209119782749</v>
+        <v>0.0303844294713456</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03890404629313921</v>
+        <v>0.03294418826249856</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0254187548894592</v>
+        <v>0.0427172090373504</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08655984282597121</v>
+        <v>0.0231350902069728</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1177442711345841</v>
+        <v>0.016147398605184</v>
       </c>
       <c r="P9" t="n">
-        <v>0.034333610165568</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02625664876224768</v>
+        <v>0.0309421904440896</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0206796798045936</v>
+        <v>0.01485934853819294</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0406702408303296</v>
+        <v>0.01098769954529785</v>
       </c>
       <c r="T9" t="n">
-        <v>0.055836290799744</v>
+        <v>0.02392160331504662</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.117720652270657</v>
+        <v>0.02386685823443591</v>
       </c>
       <c r="C10" t="n">
-        <v>37.29787234042553</v>
+        <v>36.28</v>
       </c>
       <c r="D10" t="n">
-        <v>5.414851013184347</v>
+        <v>2.460124983948513</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02584746126824113</v>
+        <v>0.001649311139292967</v>
       </c>
       <c r="F10" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G10" t="n">
-        <v>1.545454545454545</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>159.2727272727273</v>
+        <v>135.68</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0326373177868416</v>
+        <v>0.00412676130262032</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0314583741954972</v>
+        <v>0.004219900103593728</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04366183185575366</v>
+        <v>0.004334008492982724</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0488782105289712</v>
+        <v>0.003665914818270096</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0131748093165024</v>
+        <v>0.003731517023125248</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00580817034677376</v>
+        <v>0.001350602502665889</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01911020159168064</v>
+        <v>0.0009561054129669505</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03213907987266025</v>
+        <v>0.0006279870112088832</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03755840061680784</v>
+        <v>0.001576882323118686</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0230467416455812</v>
+        <v>0.003442899399086408</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01955592317301382</v>
+        <v>0.00305717090042304</v>
       </c>
       <c r="T10" t="n">
-        <v>0.004233934903632001</v>
+        <v>0.003444172841658226</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01524867843717929</v>
+        <v>0.3607376614873056</v>
       </c>
       <c r="C11" t="n">
-        <v>36.52</v>
+        <v>42.3953488372093</v>
       </c>
       <c r="D11" t="n">
-        <v>2.948670977255646</v>
+        <v>9.330511459205029</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0013286907019364</v>
+        <v>0.07799093573614323</v>
       </c>
       <c r="F11" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G11" t="n">
-        <v>4.307692307692307</v>
+        <v>2.261904761904762</v>
       </c>
       <c r="H11" t="n">
-        <v>199.265306122449</v>
+        <v>171.7857142857143</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000244657554624</v>
+        <v>0.0718174776059136</v>
       </c>
       <c r="J11" t="n">
-        <v>6.624782895763201e-05</v>
+        <v>0.09555260355115074</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0007108636457579695</v>
+        <v>0.1086375278095413</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002496417183268001</v>
+        <v>0.08315547826033282</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004234474703633471</v>
+        <v>0.1183154872770752</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003228594789456245</v>
+        <v>0.07805639721003965</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001693971268592788</v>
+        <v>0.0059696443328256</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001187608546404</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001498688480989516</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00255778424308538</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001383416142621408</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0001329602601402066</v>
+        <v>0.04751249710798098</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000701188551552384</v>
+        <v>0.007545554321007898</v>
       </c>
       <c r="C12" t="n">
-        <v>36.16</v>
+        <v>37.24489795918367</v>
       </c>
       <c r="D12" t="n">
-        <v>2.932496150564262</v>
+        <v>4.830180989223543</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001330448950714455</v>
+        <v>0.001178053618206082</v>
       </c>
       <c r="F12" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G12" t="n">
-        <v>2.216216216216216</v>
+        <v>3.404761904761905</v>
       </c>
       <c r="H12" t="n">
-        <v>186.1666666666667</v>
+        <v>177.96875</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.000783393489906048</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.000939362680978848</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.001024468558908768</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.000912236274609912</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00013904704354464</v>
+        <v>0.001856004830384947</v>
       </c>
       <c r="N12" t="n">
-        <v>0.000346411796628096</v>
+        <v>0.003103682563097484</v>
       </c>
       <c r="O12" t="n">
-        <v>0.000378572614701408</v>
+        <v>0.001867022575594848</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.0007422622374874955</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.001079109194198887</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.004019083748867919</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.001872189510141312</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.0007627199265403201</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1359275729651859</v>
+        <v>0.04232686902974574</v>
       </c>
       <c r="C13" t="n">
-        <v>34.96</v>
+        <v>37.29787234042553</v>
       </c>
       <c r="D13" t="n">
-        <v>2.366166875642289</v>
+        <v>6.560786435786436</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02934333764144518</v>
+        <v>0.0160189613324335</v>
       </c>
       <c r="F13" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n">
-        <v>3.590909090909091</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="H13" t="n">
-        <v>152.72</v>
+        <v>159.2727272727273</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0268175262062232</v>
+        <v>0.0059859548364672</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03290252657605402</v>
+        <v>0.007364192394182401</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02838924711338688</v>
+        <v>0.01712936506306124</v>
       </c>
       <c r="L13" t="n">
-        <v>0.028489498458984</v>
+        <v>0.0259394574384881</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04531193832500161</v>
+        <v>0.0053090689353408</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02275142558552883</v>
+        <v>0.007564366757056582</v>
       </c>
       <c r="O13" t="n">
-        <v>0.009105338657923201</v>
+        <v>0.00980913689005824</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0026178358344768</v>
+        <v>0.0145693573778592</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0194665860962496</v>
+        <v>0.0109035716844096</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01769363435040768</v>
+        <v>0.01641244428936</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02716600226264488</v>
+        <v>0.002405799287136</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04970124123127089</v>
+        <v>0.00489315109248</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1981683643314465</v>
+        <v>0.004924087768420478</v>
       </c>
       <c r="C14" t="n">
-        <v>34.96</v>
+        <v>35.58</v>
       </c>
       <c r="D14" t="n">
-        <v>2.053858807339112</v>
+        <v>2.948670977255646</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01151869761076407</v>
+        <v>0.0008517068327126504</v>
       </c>
       <c r="F14" t="n">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G14" t="n">
-        <v>3.590909090909091</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="H14" t="n">
-        <v>147.98</v>
+        <v>183.28</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03075776271665518</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03632456740901956</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03378675892255571</v>
+        <v>0.0007108636457579695</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03313346054877678</v>
+        <v>0.001294926767214635</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03328558138480339</v>
+        <v>0.001546803350750408</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01647964356436326</v>
+        <v>0.0008974582787063041</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00387374461488</v>
+        <v>0.0007204728095186401</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.0005072885428745141</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00784834251061056</v>
+        <v>0.001498688480989516</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01206186210051782</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01625504792921856</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03349272413941112</v>
+        <v>0</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07988175531323437</v>
+        <v>0.06479869507742131</v>
       </c>
       <c r="C15" t="n">
-        <v>36.38</v>
+        <v>36.21276595744681</v>
       </c>
       <c r="D15" t="n">
-        <v>2.863468017620495</v>
+        <v>4.655327326337965</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01425942114964943</v>
+        <v>0.01139410586651101</v>
       </c>
       <c r="F15" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>3.065217391304348</v>
+        <v>2.064516129032258</v>
       </c>
       <c r="H15" t="n">
-        <v>147.72</v>
+        <v>186.1666666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>0.016094971986336</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01860473908382746</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0248997960870848</v>
+        <v>0.0008889224484672</v>
       </c>
       <c r="L15" t="n">
-        <v>0.018695914799184</v>
+        <v>0.006857939454229662</v>
       </c>
       <c r="M15" t="n">
-        <v>0.009976785566774402</v>
+        <v>0.01568084406238132</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0138965491026432</v>
+        <v>0.02103164688109296</v>
       </c>
       <c r="O15" t="n">
-        <v>0.013333836727008</v>
+        <v>0.004201334807250905</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00122328777312</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01732842734614167</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0171205919891328</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0136903377351744</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01418369981149137</v>
+        <v>0</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,65 +1509,65 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2898352402050122</v>
+        <v>0.1604572180380644</v>
       </c>
       <c r="C16" t="n">
-        <v>41.45454545454545</v>
+        <v>36.54</v>
       </c>
       <c r="D16" t="n">
-        <v>26.74086021505376</v>
+        <v>4.677969030969031</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2120725972607806</v>
+        <v>0.06478477685864963</v>
       </c>
       <c r="F16" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G16" t="n">
-        <v>1.840909090909091</v>
+        <v>1.676470588235294</v>
       </c>
       <c r="H16" t="n">
-        <v>247.1935483870968</v>
+        <v>152.72</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002201917991616</v>
+        <v>0.0445674317941944</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.04083823901783808</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.07164462863225717</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0131800519783872</v>
+        <v>0.06192772022642688</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08552691056486354</v>
+        <v>0.05758349172013964</v>
       </c>
       <c r="N16" t="n">
-        <v>0.186702840077472</v>
+        <v>0.010642603626144</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0624832093790208</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.01741961788922898</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.0631950463593792</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.07942807510868161</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.0361083968430696</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.298495978785845</v>
+        <v>0.01022613655203813</v>
       </c>
       <c r="C17" t="n">
-        <v>43.5</v>
+        <v>34.96</v>
       </c>
       <c r="D17" t="n">
-        <v>25.77579365079365</v>
+        <v>1.949458654412833</v>
       </c>
       <c r="E17" t="n">
-        <v>1.432221441315653</v>
+        <v>0.0005514345696995407</v>
       </c>
       <c r="F17" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G17" t="n">
-        <v>2.119047619047619</v>
+        <v>3.787234042553191</v>
       </c>
       <c r="H17" t="n">
-        <v>246.9761904761905</v>
+        <v>147.98</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007437589660569957</v>
+        <v>0.001182346555513261</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1656331644804507</v>
+        <v>0.001748882879301466</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1268467868207248</v>
+        <v>0.001611421692433812</v>
       </c>
       <c r="L17" t="n">
-        <v>0.171190968596325</v>
+        <v>0.001679563238824666</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8609352552685815</v>
+        <v>0.001286792939460781</v>
       </c>
       <c r="N17" t="n">
-        <v>1.384598654135428</v>
+        <v>0.0006507099413851088</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2496196546636936</v>
+        <v>0.0007864705291507422</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.000625130634258648</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.0005176709198289216</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.0009775922773551709</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0005382466201729781</v>
+        <v>0.00175256361628992</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7751808042905101</v>
+        <v>0.09893584522662625</v>
       </c>
       <c r="C18" t="n">
-        <v>36.12765957446808</v>
+        <v>36.16</v>
       </c>
       <c r="D18" t="n">
-        <v>3.111482292836703</v>
+        <v>2.548708593524832</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06762738230965512</v>
+        <v>0.00673050223193559</v>
       </c>
       <c r="F18" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G18" t="n">
-        <v>4.152173913043478</v>
+        <v>4.513513513513513</v>
       </c>
       <c r="H18" t="n">
-        <v>89.38297872340425</v>
+        <v>162.8125</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1309819287176489</v>
+        <v>0.01449679552751218</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1166144550938717</v>
+        <v>0.0104106180781954</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08107488494595477</v>
+        <v>0.01710851356692851</v>
       </c>
       <c r="L18" t="n">
-        <v>0.030796269688296</v>
+        <v>0.01379629775704608</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00856301441184</v>
+        <v>0.009896596455531035</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0150953711203008</v>
+        <v>0.01194872545704384</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.01219324320735091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.00122328777312</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.02010726267929165</v>
       </c>
       <c r="R18" t="n">
-        <v>0.005137808647104</v>
+        <v>0.01020168816357162</v>
       </c>
       <c r="S18" t="n">
-        <v>0.177132069547776</v>
+        <v>0.0107526995257248</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1956771121882752</v>
+        <v>0.01647078570623188</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2750583832430287</v>
+        <v>0.06709267024565456</v>
       </c>
       <c r="C19" t="n">
-        <v>36.42</v>
+        <v>36.54</v>
       </c>
       <c r="D19" t="n">
-        <v>3.375759138307513</v>
+        <v>4.266920487808843</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04806869898449648</v>
+        <v>0.009812138836600953</v>
       </c>
       <c r="F19" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G19" t="n">
-        <v>3.804347826086957</v>
+        <v>5.408163265306122</v>
       </c>
       <c r="H19" t="n">
-        <v>145.3125</v>
+        <v>199.265306122449</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04759906824269391</v>
+        <v>0.000244657554624</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07014426190129551</v>
+        <v>0.005011565348918027</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1086524200085184</v>
+        <v>0.01593817191278875</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0589104809340264</v>
+        <v>0.01212859244854154</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05105197234234685</v>
+        <v>0.01900035824183366</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0188982669849876</v>
+        <v>0.01329865497065308</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03838513927014127</v>
+        <v>0.0183895103379168</v>
       </c>
       <c r="P19" t="n">
-        <v>0.00122328777312</v>
+        <v>0.006781462582259781</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.018267764078592</v>
+        <v>0.01683733290922368</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02622284153651782</v>
+        <v>0.008966699376969599</v>
       </c>
       <c r="S19" t="n">
-        <v>0.03086110394027136</v>
+        <v>0.003853356485328</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03842131021057017</v>
+        <v>0.01030595483098139</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,53 +1785,53 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2090629386456408</v>
+        <v>0.1825201816930722</v>
       </c>
       <c r="C20" t="n">
-        <v>56.84375</v>
+        <v>36.95918367346939</v>
       </c>
       <c r="D20" t="n">
-        <v>33.90520833333333</v>
+        <v>22.63148148148148</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1490793667403878</v>
+        <v>0.09323095755943685</v>
       </c>
       <c r="F20" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G20" t="n">
-        <v>2.46875</v>
+        <v>1.840909090909091</v>
       </c>
       <c r="H20" t="n">
-        <v>238.28125</v>
+        <v>229.0769230769231</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.019939590701856</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0106344483743232</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03243158302499869</v>
+        <v>0.000244657554624</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08396805118279309</v>
+        <v>0.07083040087660321</v>
       </c>
       <c r="N20" t="n">
-        <v>0.09735021961510811</v>
+        <v>0.06927319099903805</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0559496876345856</v>
+        <v>0.0142405987888332</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0131931586330992</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5938063120149347</v>
+        <v>0.01323715381806894</v>
       </c>
       <c r="C21" t="n">
-        <v>37.08163265306123</v>
+        <v>36.24</v>
       </c>
       <c r="D21" t="n">
-        <v>5.771058250139883</v>
+        <v>3.466421300921301</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1118556240919475</v>
+        <v>0.003362058274153576</v>
       </c>
       <c r="F21" t="n">
-        <v>82</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>2.534883720930233</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>174.5510204081633</v>
+        <v>103.3061224489796</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.001458240578077248</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00733972663872</v>
+        <v>0.00155439099704448</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1605531839826139</v>
+        <v>0.002202617013200649</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0992991616952381</v>
+        <v>0.0025811372012832</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1335404756847694</v>
+        <v>0.0025199728126272</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1126797990447923</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.09128872384605731</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0405152910457344</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06679151241235201</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07478447472191525</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06878954910844799</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.10275617294208</v>
+        <v>0.00057127539004704</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,47 +1923,47 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07891300657263108</v>
+        <v>0.001400181010293024</v>
       </c>
       <c r="C22" t="n">
-        <v>47.86842105263158</v>
+        <v>36.34</v>
       </c>
       <c r="D22" t="n">
-        <v>10.15952380952381</v>
+        <v>3.725298531533825</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02109388754597282</v>
+        <v>0.001010992490706552</v>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>2.28</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="H22" t="n">
-        <v>192.28</v>
+        <v>97.73999999999999</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00142716906864</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00841458882870144</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01450060016854245</v>
+        <v>0.0001065972965496768</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0433148724922176</v>
+        <v>0.0007040922504243689</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0257265064235718</v>
+        <v>0.0008145488819334528</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8537003450769449</v>
+        <v>0.03442463908639178</v>
       </c>
       <c r="C23" t="n">
-        <v>38.04255319148936</v>
+        <v>36.16</v>
       </c>
       <c r="D23" t="n">
-        <v>4.889516105949074</v>
+        <v>3.175424593122736</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1316613486184723</v>
+        <v>0.003319848708779686</v>
       </c>
       <c r="F23" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G23" t="n">
-        <v>4.288888888888889</v>
+        <v>6.18</v>
       </c>
       <c r="H23" t="n">
-        <v>148.3829787234042</v>
+        <v>141.64</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2421776166839477</v>
+        <v>0.008052781081671647</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2333501206863778</v>
+        <v>0.009302423910259199</v>
       </c>
       <c r="K23" t="n">
-        <v>0.265794219789552</v>
+        <v>0.007921235875259241</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2299669805486226</v>
+        <v>0.005007204687797365</v>
       </c>
       <c r="M23" t="n">
-        <v>0.08475225524592565</v>
+        <v>0.004918497615139047</v>
       </c>
       <c r="N23" t="n">
-        <v>0.077648191398792</v>
+        <v>0.00326148908443344</v>
       </c>
       <c r="O23" t="n">
-        <v>0.162452616270336</v>
+        <v>0.0022065053207652</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.001025604468983808</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.018267764078592</v>
+        <v>0.002624196930897024</v>
       </c>
       <c r="R23" t="n">
-        <v>0.053498451944448</v>
+        <v>0.001695699269503069</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1508502022375901</v>
+        <v>0.002431613795784148</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1971613680196608</v>
+        <v>0.00612194366057904</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1015614285503328</v>
+        <v>0.05301134095731373</v>
       </c>
       <c r="C24" t="n">
-        <v>38.6595744680851</v>
+        <v>49.21621621621622</v>
       </c>
       <c r="D24" t="n">
-        <v>6.449540704773262</v>
+        <v>18.43948618948619</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02280983708404645</v>
+        <v>0.02456961745067287</v>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G24" t="n">
-        <v>2.566666666666667</v>
+        <v>2.3125</v>
       </c>
       <c r="H24" t="n">
-        <v>156.8604651162791</v>
+        <v>237.84375</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02366164763286912</v>
+        <v>9.78630218496e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02585704142302848</v>
+        <v>0.0136682020516608</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0345685833586548</v>
+        <v>0.0065218713846912</v>
       </c>
       <c r="L24" t="n">
-        <v>0.016986224506752</v>
+        <v>0.0093896074356768</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0011743562621952</v>
+        <v>0.0181780563085632</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0200999773209984</v>
+        <v>0.02017004233395345</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02728910364276096</v>
+        <v>0.019654156888128</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0225631831846769</v>
+        <v>0.004785878164683324</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0237256663596624</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0314976213448848</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.009003398010163199</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0102236275638504</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1323531109094796</v>
+        <v>2.58571155616814</v>
       </c>
       <c r="C25" t="n">
-        <v>35.52</v>
+        <v>55.09090909090909</v>
       </c>
       <c r="D25" t="n">
-        <v>3.120910341987161</v>
+        <v>21.52929292929293</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01163503441320759</v>
+        <v>1.04555826959414</v>
       </c>
       <c r="F25" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G25" t="n">
-        <v>6.347826086956522</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>146.1836734693877</v>
+        <v>140.6363636363636</v>
       </c>
       <c r="I25" t="n">
-        <v>0.023884693770168</v>
+        <v>0.7286207798645999</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03192571381367808</v>
+        <v>0.939997625584896</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03160396153639023</v>
+        <v>0.8696891025730252</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0208754058482928</v>
+        <v>0.8489993541690684</v>
       </c>
       <c r="M25" t="n">
-        <v>0.020868383270336</v>
+        <v>0.42461677813632</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0083841085750212</v>
+        <v>0.33151098651552</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0227613078318528</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.007149437429568001</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01855445254644628</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.004912723696849921</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0071317677172896</v>
+        <v>0.470598806319264</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02509791901483169</v>
+        <v>0.6888803945736074</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,67 +2199,550 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.085424296981782</v>
+      </c>
+      <c r="C26" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>49.06666666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.190544000170998</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H26" t="n">
+        <v>173.55</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4902937394664961</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.43243222779792</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5257834765078362</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7137790057095729</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4985932765118178</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.322295551958016</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.154903183156224</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.002691233100864</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.052112059134912</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.206001660993408</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.071195348395584</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2721570637637376</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.00778877111447689</v>
+      </c>
+      <c r="C27" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.132404693427834</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0006612657829881525</v>
+      </c>
+      <c r="F27" t="n">
+        <v>82</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.061224489795918</v>
+      </c>
+      <c r="H27" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.001701026402954084</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.003042759157539718</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.001154156330762142</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0006103093908075056</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0006355536021255272</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0005008376908528723</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0007542866547710837</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0006265601052128825</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0006060834875912728</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.873736095397328</v>
+      </c>
+      <c r="C28" t="n">
+        <v>65.14285714285714</v>
+      </c>
+      <c r="D28" t="n">
+        <v>23.87746598639456</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6765391364903054</v>
+      </c>
+      <c r="F28" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="H28" t="n">
+        <v>203.2857142857143</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.158945857987392</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3046965185287296</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5155578511597744</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.7646014596389761</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.638066902459392</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.374430911812416</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0254933171918208</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.026728837842672</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1773435624116621</v>
+      </c>
+      <c r="C29" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.375759138307513</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.02033734751299052</v>
+      </c>
+      <c r="F29" t="n">
+        <v>76</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.468085106382978</v>
+      </c>
+      <c r="H29" t="n">
+        <v>145.3125</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0300167635350912</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.03130362045060923</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0488152985863536</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.03957454328730921</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.02040315238430147</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0231258955603121</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.02144912781388608</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.018267764078592</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.03179814237448134</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.01478621293763956</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.030969568789488</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1772387818854312</v>
+      </c>
+      <c r="C30" t="n">
+        <v>37.72916666666666</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.496481556637807</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.04796097725476176</v>
+      </c>
+      <c r="F30" t="n">
+        <v>60</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.871794871794872</v>
+      </c>
+      <c r="H30" t="n">
+        <v>158.7111111111111</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.025342445033136</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0575923883584896</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.04367626665147649</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.016986224506752</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0011743562621952</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01535320254325071</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.02757494521908</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0435205013416992</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.01926188927554752</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0410919838530624</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.009186891176131201</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0286528947543936</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2321940741338672</v>
+      </c>
+      <c r="C31" t="n">
+        <v>36.46</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.631907079848256</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02489184270555189</v>
+      </c>
+      <c r="F31" t="n">
+        <v>70</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.341463414634146</v>
+      </c>
+      <c r="H31" t="n">
+        <v>156.3333333333333</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.007864700586554465</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.02251909685277506</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02025872201610758</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.04207424898379853</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.05406733586200164</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0523473964017408</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0091257267874752</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.04347727850704897</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0290381333165952</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0546655590939136</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.04399155577839194</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.02337784486950531</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1170603215307268</v>
+      </c>
+      <c r="C32" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.889181705635266</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01162317956877672</v>
+      </c>
+      <c r="F32" t="n">
+        <v>92</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6.347826086956522</v>
+      </c>
+      <c r="H32" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01685445893804736</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0242042777008956</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.02483964239203052</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0269194132010107</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.02148582644707968</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.02044892324739142</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0126243298185984</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.004203216788440347</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.0223142980914252</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.01285868600250139</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.01378485761031485</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.01442305216019405</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>3.356276158041934</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>38.06521739130435</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>9.826086956521738</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E33" t="n">
         <v>0.9239822074046888</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F33" t="n">
         <v>95.833</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G33" t="n">
         <v>4.152173913043478</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>105.7826086956522</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>1.219021949090658</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J33" t="n">
         <v>0.8689368200534524</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K33" t="n">
         <v>0.4825391587134136</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>0.393234592439232</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M33" t="n">
         <v>0.00856301441184</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N33" t="n">
         <v>0.18532809762768</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
         <v>0.005137808647104</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S33" t="n">
         <v>0.6303310635893761</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T33" t="n">
         <v>1.307044355438516</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>min</t>
         </is>
